--- a/biology/Botanique/Dracophyllum_verticillatum/Dracophyllum_verticillatum.xlsx
+++ b/biology/Botanique/Dracophyllum_verticillatum/Dracophyllum_verticillatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dracophyllum verticillatum est une espèce de plantes à fleurs de la famille des Ericaceae. Elle est endémique de Nouvelle-Calédonie.
 </t>
@@ -513,16 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme un arbuste à écorce grisâtre[1]. Les individus sont monocaules lorsqu'ils sont jeunes[2].
-Feuilles
-Les feuilles sont disposées en pseudo-verticilles, d'où son nom. Elles sont positionnées au sommet des axes. D'une longueur comprise entre 6 et 70 cm, leur marge est finement denticulée. Les nervures sont fines, rapprochées et un peu saillantes[1].
-En période de sécheresse, les feuilles peut devenir rouge flamboyant[3].
-Fleurs
-Les fleurs sont petites et de couleurs variées (roses, rose vif, blanches, crème ou mauves). Il se trouve aussi des individus produisant des fleurs blanches à anthères roses[3].
-Elles forment de longues inflorescences sommitales[1]. Leur odeur rappelle celle de l'encre[2].
-Fruits
-Les fruits sont des capsules globuleuses contenant de nombreuses graines, qui deviennent brun rougeâtre à maturité[1],[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme un arbuste à écorce grisâtre. Les individus sont monocaules lorsqu'ils sont jeunes.
 </t>
         </is>
       </c>
@@ -548,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce se trouve uniquement en Nouvelle-Calédonie, dans le maquis minier et les forêts rivulaires et humides, jusqu'à 1200 mètres d'altitude[1],[3].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont disposées en pseudo-verticilles, d'où son nom. Elles sont positionnées au sommet des axes. D'une longueur comprise entre 6 et 70 cm, leur marge est finement denticulée. Les nervures sont fines, rapprochées et un peu saillantes.
+En période de sécheresse, les feuilles peut devenir rouge flamboyant.
 </t>
         </is>
       </c>
@@ -579,12 +595,122 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont petites et de couleurs variées (roses, rose vif, blanches, crème ou mauves). Il se trouve aussi des individus produisant des fleurs blanches à anthères roses.
+Elles forment de longues inflorescences sommitales. Leur odeur rappelle celle de l'encre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dracophyllum_verticillatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dracophyllum_verticillatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des capsules globuleuses contenant de nombreuses graines, qui deviennent brun rougeâtre à maturité,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dracophyllum_verticillatum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dracophyllum_verticillatum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se trouve uniquement en Nouvelle-Calédonie, dans le maquis minier et les forêts rivulaires et humides, jusqu'à 1200 mètres d'altitude,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dracophyllum_verticillatum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dracophyllum_verticillatum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut être désignée sous le nom de dragonnier commun[2]. La disposition de ses feuilles a pu occasionner à l'oral l'appellation d'ananassier[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut être désignée sous le nom de dragonnier commun. La disposition de ses feuilles a pu occasionner à l'oral l'appellation d'ananassier.
 </t>
         </is>
       </c>
